--- a/data/planilha.xlsx
+++ b/data/planilha.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo Henrique\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBEAB9C-B93F-424C-B347-68C76D2914CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD962199-D1F7-4DAF-88D1-FEC6BCA279A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{406BD8E0-076A-4D25-AE16-8FC8D9DC2BB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="coordenadas_kmz" sheetId="1" r:id="rId1"/>
+    <sheet name="sheetName" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
